--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Corte e estamparia</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
+          <t>004322 - FRANCISCO ALEX SOUSA FERREIRA</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>PI-CP-01</t>
+          <t>ES-LA-01</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>Exaustor nao funcionando</t>
+          <t>sensor da porta traseira( so abri na marra)</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>
@@ -2244,20 +2244,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A79:H79"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" scale="94" verticalDpi="0"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Corte e estamparia</t>
+          <t>Solda</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1060,11 +1060,7 @@
           <t>Solicitante:</t>
         </is>
       </c>
-      <c r="B10" s="71" t="inlineStr">
-        <is>
-          <t>004322 - FRANCISCO ALEX SOUSA FERREIRA</t>
-        </is>
-      </c>
+      <c r="B10" s="71" t="n"/>
       <c r="C10" s="56" t="n"/>
       <c r="D10" s="56" t="n"/>
       <c r="E10" s="57" t="n"/>
@@ -1075,7 +1071,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Em espera</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1088,7 +1084,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>ES-LA-01</t>
+          <t>SO-MS-31</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1097,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1110,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>sensor da porta traseira( so abri na marra)</t>
+          <t xml:space="preserve">Aumentar a manqueira de gás </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Solda</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>16:05</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1060,7 +1060,11 @@
           <t>Solicitante:</t>
         </is>
       </c>
-      <c r="B10" s="71" t="n"/>
+      <c r="B10" s="71" t="inlineStr">
+        <is>
+          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
+        </is>
+      </c>
       <c r="C10" s="56" t="n"/>
       <c r="D10" s="56" t="n"/>
       <c r="E10" s="57" t="n"/>
@@ -1071,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Em espera</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1084,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>SO-MS-31</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1097,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1110,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aumentar a manqueira de gás </t>
+          <t xml:space="preserve">Mangueira </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>04/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mangueira </t>
+          <t xml:space="preserve">Lixadeira sem o pino </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Forjaria</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
+          <t>004322 - FRANCISCO ALEX SOUSA FERREIRA</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Em espera</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>FO-PE-02</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lixadeira sem o pino </t>
+          <t>faltando correia</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Forjaria</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004322 - FRANCISCO ALEX SOUSA FERREIRA</t>
+          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Em espera</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>FO-PE-02</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>faltando correia</t>
+          <t>Ponte expedicao ficou presa nas grades da deltec</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>05/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Corte e estamparia</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
+          <t>004292 - FILIPE DA SILVA DOS SANTOS</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>PI-CP-01</t>
+          <t>ES-PL-02</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>Exaustor nao funcionando</t>
+          <t xml:space="preserve">Máquina ativa o modo parada de emergência sem necessidade </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>04/07/2023</t>
+          <t>05/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>Ponte expedicao ficou presa nas grades da deltec</t>
+          <t xml:space="preserve">Ponte cabine pó com vazamento de óleo </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Em espera</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Corte e estamparia</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004292 - FILIPE DA SILVA DOS SANTOS</t>
+          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>ES-PL-02</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Máquina ativa o modo parada de emergência sem necessidade </t>
+          <t xml:space="preserve">Monovia com problema. </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>
@@ -2244,20 +2244,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A79:H79"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" scale="94" verticalDpi="0"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>04/07/2023</t>
+          <t>05/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Forjaria</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004322 - FRANCISCO ALEX SOUSA FERREIRA</t>
+          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>FO-PE-02</t>
+          <t>PI-SP-01</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>faltando correia</t>
+          <t>Falha ao ligar l spray</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>05/07/2023</t>
+          <t>11/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Manutenção</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
+          <t>010050 - JORDAO RODRIGUES DA SILVA MATOS</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>PI-SP-01</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>Falha ao ligar l spray</t>
+          <t>Atividades Isael 01/07/2023</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>11/07/2023</t>
+          <t>13/07/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Manutenção</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>13:19</t>
+          <t>09:06</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>010050 - JORDAO RODRIGUES DA SILVA MATOS</t>
+          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Em espera</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>Atividades Isael 01/07/2023</t>
+          <t xml:space="preserve">Pistola verniz cabine manual </t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>146</v>
+        <v>1160</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>13/07/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Pintura</t>
+          <t>Administrativo</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>09:09</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B10" s="71" t="inlineStr">
         <is>
-          <t>004271 - FRANCISCO LUCAS TEIXEIRA TELES</t>
+          <t>004357 - LUAN ARAUJO SOARES</t>
         </is>
       </c>
       <c r="C10" s="56" t="n"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Em espera</t>
+          <t>Aguardando material</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistola verniz cabine manual </t>
+          <t>teste</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>1160</v>
+        <v>2</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Administrativo</t>
+          <t>Pintura</t>
         </is>
       </c>
       <c r="C9" s="14" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1060,11 +1060,7 @@
           <t>Solicitante:</t>
         </is>
       </c>
-      <c r="B10" s="71" t="inlineStr">
-        <is>
-          <t>004357 - LUAN ARAUJO SOARES</t>
-        </is>
-      </c>
+      <c r="B10" s="71" t="n"/>
       <c r="C10" s="56" t="n"/>
       <c r="D10" s="56" t="n"/>
       <c r="E10" s="57" t="n"/>
@@ -1075,7 +1071,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Aguardando material</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1088,7 +1084,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1101,7 +1097,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1114,7 +1110,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>Lixadeira parando.</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>

--- a/modelo_os_new.xlsx
+++ b/modelo_os_new.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>2</v>
+        <v>1504</v>
       </c>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="8" t="n"/>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>22/06/2023</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="H8" s="12" t="n"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G9" s="17" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="H9" s="12" t="n"/>
@@ -1060,7 +1060,11 @@
           <t>Solicitante:</t>
         </is>
       </c>
-      <c r="B10" s="71" t="n"/>
+      <c r="B10" s="71" t="inlineStr">
+        <is>
+          <t>004147 - RYAN DOS SANTOS AGUIAR</t>
+        </is>
+      </c>
       <c r="C10" s="56" t="n"/>
       <c r="D10" s="56" t="n"/>
       <c r="E10" s="57" t="n"/>
@@ -1071,7 +1075,7 @@
       </c>
       <c r="G10" s="18" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Em espera</t>
         </is>
       </c>
       <c r="H10" s="7" t="n"/>
@@ -1084,7 +1088,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>PI-C.MANUAL - CABINE MANUAL DE PINTURA</t>
         </is>
       </c>
       <c r="C11" s="21" t="n"/>
@@ -1097,7 +1101,7 @@
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -1110,7 +1114,7 @@
       </c>
       <c r="B12" s="27" t="inlineStr">
         <is>
-          <t>Lixadeira parando.</t>
+          <t>Realizar instalação nova para iluminação e tomadas</t>
         </is>
       </c>
       <c r="C12" s="28" t="n"/>
